--- a/output/CANVAS_28345351000153.xlsx
+++ b/output/CANVAS_28345351000153.xlsx
@@ -790,10 +790,10 @@
         <v>44165</v>
       </c>
       <c r="B37">
-        <v>0.2570895</v>
+        <v>0.2581481000000001</v>
       </c>
       <c r="C37">
-        <v>0.01953937457294108</v>
+        <v>0.02039793268031787</v>
       </c>
     </row>
   </sheetData>

--- a/output/CANVAS_28345351000153.xlsx
+++ b/output/CANVAS_28345351000153.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CANVAS VECTOR CSHG FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,414 +383,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43100</v>
       </c>
       <c r="B2">
-        <v>-0.00708489999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43131</v>
       </c>
       <c r="B3">
-        <v>-0.006359499999999962</v>
-      </c>
-      <c r="C3">
         <v>0.0007305760583156129</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43159</v>
       </c>
       <c r="B4">
-        <v>-0.005117900000000009</v>
-      </c>
-      <c r="C4">
         <v>0.001249546490908804</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43190</v>
       </c>
       <c r="B5">
-        <v>0.009186200000000033</v>
-      </c>
-      <c r="C5">
         <v>0.01437768354662339</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43220</v>
       </c>
       <c r="B6">
-        <v>0.01529500000000006</v>
-      </c>
-      <c r="C6">
         <v>0.006053194147918495</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43251</v>
       </c>
       <c r="B7">
-        <v>0.02215260000000008</v>
-      </c>
-      <c r="C7">
         <v>0.006754293087230856</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43281</v>
       </c>
       <c r="B8">
-        <v>0.0145054</v>
-      </c>
-      <c r="C8">
         <v>-0.007481466074635068</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43312</v>
       </c>
       <c r="B9">
-        <v>0.03924909999999993</v>
-      </c>
-      <c r="C9">
         <v>0.02438991453372252</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43343</v>
       </c>
       <c r="B10">
-        <v>0.01514449999999989</v>
-      </c>
-      <c r="C10">
         <v>-0.02319424669215497</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43373</v>
       </c>
       <c r="B11">
-        <v>0.01687219999999989</v>
-      </c>
-      <c r="C11">
         <v>0.001701925193900999</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43404</v>
       </c>
       <c r="B12">
-        <v>0.03865739999999995</v>
-      </c>
-      <c r="C12">
         <v>0.02142373446732049</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43434</v>
       </c>
       <c r="B13">
-        <v>0.07598890000000003</v>
-      </c>
-      <c r="C13">
         <v>0.03594207291066343</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43465</v>
       </c>
       <c r="B14">
-        <v>0.06886159999999997</v>
-      </c>
-      <c r="C14">
         <v>-0.006623953090965973</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43496</v>
       </c>
       <c r="B15">
-        <v>0.1164289000000001</v>
-      </c>
-      <c r="C15">
         <v>0.04450276817878018</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43524</v>
       </c>
       <c r="B16">
-        <v>0.1335506</v>
-      </c>
-      <c r="C16">
         <v>0.01533613112308352</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43555</v>
       </c>
       <c r="B17">
-        <v>0.1787647000000001</v>
-      </c>
-      <c r="C17">
         <v>0.03988714751683786</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43585</v>
       </c>
       <c r="B18">
-        <v>0.2051486</v>
-      </c>
-      <c r="C18">
         <v>0.02238266890754348</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43616</v>
       </c>
       <c r="B19">
-        <v>0.2335038</v>
-      </c>
-      <c r="C19">
         <v>0.02352838479835606</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43646</v>
       </c>
       <c r="B20">
-        <v>0.2631798999999999</v>
-      </c>
-      <c r="C20">
         <v>0.02405837744480377</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43677</v>
       </c>
       <c r="B21">
-        <v>0.3008871</v>
-      </c>
-      <c r="C21">
         <v>0.02985101330380568</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43708</v>
       </c>
       <c r="B22">
-        <v>0.3005637999999999</v>
-      </c>
-      <c r="C22">
         <v>-0.0002485227196118434</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43738</v>
       </c>
       <c r="B23">
-        <v>0.3248899000000001</v>
-      </c>
-      <c r="C23">
         <v>0.0187042727161868</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43769</v>
       </c>
       <c r="B24">
-        <v>0.3153334999999999</v>
-      </c>
-      <c r="C24">
         <v>-0.007212976716027608</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43799</v>
       </c>
       <c r="B25">
-        <v>0.336462</v>
-      </c>
-      <c r="C25">
         <v>0.01606322655052894</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43830</v>
       </c>
       <c r="B26">
-        <v>0.3327943</v>
-      </c>
-      <c r="C26">
         <v>-0.002744335416944188</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43861</v>
       </c>
       <c r="B27">
-        <v>0.3778242000000001</v>
-      </c>
-      <c r="C27">
         <v>0.03378608386905624</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43890</v>
       </c>
       <c r="B28">
-        <v>0.3454116</v>
-      </c>
-      <c r="C28">
         <v>-0.0235244815702903</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43921</v>
       </c>
       <c r="B29">
-        <v>0.1743330000000001</v>
-      </c>
-      <c r="C29">
         <v>-0.127157072229792</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43951</v>
       </c>
       <c r="B30">
-        <v>0.1886751</v>
-      </c>
-      <c r="C30">
         <v>0.01221297536559041</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43982</v>
       </c>
       <c r="B31">
-        <v>0.2394928999999999</v>
-      </c>
-      <c r="C31">
         <v>0.04275163162751539</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44012</v>
       </c>
       <c r="B32">
-        <v>0.2289094</v>
-      </c>
-      <c r="C32">
         <v>-0.008538572508160258</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44043</v>
       </c>
       <c r="B33">
-        <v>0.2405345000000001</v>
-      </c>
-      <c r="C33">
         <v>0.009459688403392619</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44074</v>
       </c>
       <c r="B34">
-        <v>0.2454831</v>
-      </c>
-      <c r="C34">
         <v>0.003989086962111754</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44104</v>
       </c>
       <c r="B35">
-        <v>0.2361316</v>
-      </c>
-      <c r="C35">
         <v>-0.007508331506063781</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44135</v>
       </c>
       <c r="B36">
-        <v>0.2329975</v>
-      </c>
-      <c r="C36">
         <v>-0.002535409660265997</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44165</v>
       </c>
       <c r="B37">
-        <v>0.2581481000000001</v>
-      </c>
-      <c r="C37">
-        <v>0.02039793268031787</v>
+        <v>0.0251742602884435</v>
       </c>
     </row>
   </sheetData>
